--- a/raw_data/20200818_saline/20200818_Sensor2_Test_54.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_54.xlsx
@@ -1,718 +1,1134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFAB21E-BE62-41A9-AF85-9C52E90C73AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>48073.967573</v>
+        <v>48073.967573000002</v>
       </c>
       <c r="B2" s="1">
-        <v>13.353880</v>
+        <v>13.35388</v>
       </c>
       <c r="C2" s="1">
-        <v>1246.010000</v>
+        <v>1246.01</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.534000</v>
+        <v>-306.53399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48084.335943</v>
+        <v>48084.335942999998</v>
       </c>
       <c r="G2" s="1">
-        <v>13.356760</v>
+        <v>13.35676</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.790000</v>
+        <v>1270.79</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.424000</v>
+        <v>-264.42399999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>48094.515865</v>
+        <v>48094.515865000001</v>
       </c>
       <c r="L2" s="1">
         <v>13.359588</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.720000</v>
+        <v>1305.72</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.780000</v>
+        <v>-201.78</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>48104.986380</v>
+        <v>48104.986380000002</v>
       </c>
       <c r="Q2" s="1">
         <v>13.362496</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.350000</v>
+        <v>1317.35</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.883000</v>
+        <v>-183.88300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>48115.582413</v>
+        <v>48115.582412999996</v>
       </c>
       <c r="V2" s="1">
-        <v>13.365440</v>
+        <v>13.36544</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.190000</v>
+        <v>1330.19</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.495000</v>
+        <v>-170.495</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>48125.682976</v>
+        <v>48125.682975999996</v>
       </c>
       <c r="AA2" s="1">
         <v>13.368245</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.356000</v>
+        <v>-168.35599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>48136.261619</v>
+        <v>48136.261618999997</v>
       </c>
       <c r="AF2" s="1">
         <v>13.371184</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.212000</v>
+        <v>-178.21199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>48146.999012</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.374166</v>
+        <v>13.374166000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.720000</v>
+        <v>1380.72</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.164000</v>
+        <v>-208.16399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>48157.523818</v>
+        <v>48157.523818000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.377090</v>
+        <v>13.377090000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.380000</v>
+        <v>1402.38</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.981000</v>
+        <v>-251.98099999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>48168.539539</v>
+        <v>48168.539538999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.380150</v>
+        <v>13.38015</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.881000</v>
+        <v>-311.88099999999997</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>48179.638762</v>
+        <v>48179.638762000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>13.383233</v>
+        <v>13.383233000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.850000</v>
+        <v>-363.85</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>48191.303658</v>
+        <v>48191.303657999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.386473</v>
+        <v>13.386473000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1531.700000</v>
+        <v>1531.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-611.464000</v>
+        <v>-611.46400000000006</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>48202.032123</v>
+        <v>48202.032122999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>13.389453</v>
       </c>
       <c r="BK2" s="1">
-        <v>1686.180000</v>
+        <v>1686.18</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1055.120000</v>
+        <v>-1055.1199999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>48213.225835</v>
+        <v>48213.225834999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>13.392563</v>
+        <v>13.392563000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.810000</v>
+        <v>1980.81</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1822.990000</v>
+        <v>-1822.99</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>48224.003407</v>
+        <v>48224.003406999997</v>
       </c>
       <c r="BT2" s="1">
         <v>13.395557</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.710000</v>
+        <v>2369.71</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2711.240000</v>
+        <v>-2711.24</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>48234.748772</v>
+        <v>48234.748771999999</v>
       </c>
       <c r="BY2" s="1">
         <v>13.398541</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2850.850000</v>
+        <v>2850.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3675.660000</v>
+        <v>-3675.66</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>48245.649481</v>
@@ -721,120 +1137,120 @@
         <v>13.401569</v>
       </c>
       <c r="CE2" s="1">
-        <v>4277.010000</v>
+        <v>4277.01</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6006.780000</v>
+        <v>-6006.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>48074.352008</v>
+        <v>48074.352008000002</v>
       </c>
       <c r="B3" s="1">
         <v>13.353987</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.655000</v>
+        <v>-306.65499999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>48084.749640</v>
+        <v>48084.749640000002</v>
       </c>
       <c r="G3" s="1">
         <v>13.356875</v>
       </c>
       <c r="H3" s="1">
-        <v>1270.810000</v>
+        <v>1270.81</v>
       </c>
       <c r="I3" s="1">
-        <v>-263.698000</v>
+        <v>-263.69799999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>48094.864553</v>
+        <v>48094.864552999999</v>
       </c>
       <c r="L3" s="1">
-        <v>13.359685</v>
+        <v>13.359685000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.730000</v>
+        <v>1305.73</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.998000</v>
+        <v>-201.99799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>48105.378732</v>
+        <v>48105.378731999997</v>
       </c>
       <c r="Q3" s="1">
         <v>13.362605</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.240000</v>
+        <v>1317.24</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.834000</v>
+        <v>-183.834</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>48115.962381</v>
+        <v>48115.962380999998</v>
       </c>
       <c r="V3" s="1">
-        <v>13.365545</v>
+        <v>13.365544999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.453000</v>
+        <v>-170.453</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>48126.416030</v>
+        <v>48126.41603</v>
       </c>
       <c r="AA3" s="1">
         <v>13.368449</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.230000</v>
+        <v>1347.23</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.322000</v>
+        <v>-168.322</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>48136.977345</v>
+        <v>48136.977344999999</v>
       </c>
       <c r="AF3" s="1">
         <v>13.371383</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.140000</v>
+        <v>1360.14</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.285000</v>
+        <v>-178.285</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>48147.341535</v>
@@ -843,58 +1259,58 @@
         <v>13.374262</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.177000</v>
+        <v>-208.17699999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>48157.892186</v>
+        <v>48157.892185999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.377192</v>
+        <v>13.377192000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.350000</v>
+        <v>1402.35</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.998000</v>
+        <v>-251.99799999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>48168.911766</v>
+        <v>48168.911765999997</v>
       </c>
       <c r="AU3" s="1">
         <v>13.380253</v>
       </c>
       <c r="AV3" s="1">
-        <v>1427.000000</v>
+        <v>1427</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.901000</v>
+        <v>-311.90100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>48180.344551</v>
+        <v>48180.344551000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.383429</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.864000</v>
+        <v>-363.86399999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>48191.414762</v>
@@ -903,91 +1319,91 @@
         <v>13.386504</v>
       </c>
       <c r="BF3" s="1">
-        <v>1531.720000</v>
+        <v>1531.72</v>
       </c>
       <c r="BG3" s="1">
-        <v>-611.514000</v>
+        <v>-611.51400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>48202.470587</v>
+        <v>48202.470587000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.389575</v>
+        <v>13.389575000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1686.200000</v>
+        <v>1686.2</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1055.160000</v>
+        <v>-1055.1600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>48213.668267</v>
+        <v>48213.668267000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>13.392686</v>
+        <v>13.392685999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.700000</v>
+        <v>1980.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1823.130000</v>
+        <v>-1823.13</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>48224.497950</v>
+        <v>48224.497949999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>13.395694</v>
+        <v>13.395694000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.350000</v>
+        <v>2369.35</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2711.220000</v>
+        <v>-2711.22</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>48235.225924</v>
+        <v>48235.225923999998</v>
       </c>
       <c r="BY3" s="1">
         <v>13.398674</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2850.050000</v>
+        <v>2850.05</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3676.710000</v>
+        <v>-3676.71</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>48246.215914</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.401727</v>
+        <v>13.401726999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4277.750000</v>
+        <v>4277.75</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6008.650000</v>
+        <v>-6008.65</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>48074.685781</v>
       </c>
@@ -995,28 +1411,28 @@
         <v>13.354079</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.340000</v>
+        <v>1246.3399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.554000</v>
+        <v>-306.55399999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>48085.096310</v>
+        <v>48085.096310000001</v>
       </c>
       <c r="G4" s="1">
         <v>13.356971</v>
       </c>
       <c r="H4" s="1">
-        <v>1271.330000</v>
+        <v>1271.33</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.589000</v>
+        <v>-264.589</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>48095.212216</v>
@@ -1025,226 +1441,226 @@
         <v>13.359781</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.660000</v>
+        <v>1305.6600000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.716000</v>
+        <v>-201.71600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>48106.072157</v>
+        <v>48106.072157000002</v>
       </c>
       <c r="Q4" s="1">
         <v>13.362798</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.280000</v>
+        <v>1317.28</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.781000</v>
+        <v>-183.78100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>48116.646864</v>
+        <v>48116.646864000002</v>
       </c>
       <c r="V4" s="1">
-        <v>13.365735</v>
+        <v>13.365735000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.350000</v>
+        <v>1330.35</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.485000</v>
+        <v>-170.48500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>48126.766702</v>
+        <v>48126.766702000001</v>
       </c>
       <c r="AA4" s="1">
         <v>13.368546</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.290000</v>
+        <v>1347.29</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.388000</v>
+        <v>-168.38800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>48137.320116</v>
+        <v>48137.320116000003</v>
       </c>
       <c r="AF4" s="1">
         <v>13.371478</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.100000</v>
+        <v>-178.1</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>48147.677580</v>
+        <v>48147.677580000003</v>
       </c>
       <c r="AK4" s="1">
         <v>13.374355</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.720000</v>
+        <v>1380.72</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.168000</v>
+        <v>-208.16800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>48158.566708</v>
+        <v>48158.566707999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.377380</v>
+        <v>13.37738</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.340000</v>
+        <v>1402.34</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.002000</v>
+        <v>-252.00200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>48169.632949</v>
+        <v>48169.632948999999</v>
       </c>
       <c r="AU4" s="1">
         <v>13.380454</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.940000</v>
+        <v>1426.94</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.870000</v>
+        <v>-311.87</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>48180.752770</v>
+        <v>48180.752769999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>13.383542</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.350000</v>
+        <v>1446.35</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.865000</v>
+        <v>-363.86500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>48191.773369</v>
+        <v>48191.773369000002</v>
       </c>
       <c r="BE4" s="1">
         <v>13.386604</v>
       </c>
       <c r="BF4" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG4" s="1">
-        <v>-611.500000</v>
+        <v>-611.5</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>48202.873339</v>
+        <v>48202.873338999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.389687</v>
       </c>
       <c r="BK4" s="1">
-        <v>1686.210000</v>
+        <v>1686.21</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1055.080000</v>
+        <v>-1055.08</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>48214.065563</v>
+        <v>48214.065562999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>13.392796</v>
+        <v>13.392796000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.470000</v>
+        <v>1980.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1823.230000</v>
+        <v>-1823.23</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>48224.925964</v>
+        <v>48224.925964000002</v>
       </c>
       <c r="BT4" s="1">
         <v>13.395813</v>
       </c>
       <c r="BU4" s="1">
-        <v>2369.560000</v>
+        <v>2369.56</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2711.460000</v>
+        <v>-2711.46</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>48235.676289</v>
+        <v>48235.676289000003</v>
       </c>
       <c r="BY4" s="1">
         <v>13.398799</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.350000</v>
+        <v>2850.35</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3675.740000</v>
+        <v>-3675.74</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>48246.733569</v>
+        <v>48246.733569000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.401870</v>
+        <v>13.401870000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4269.740000</v>
+        <v>4269.74</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5994.150000</v>
+        <v>-5994.15</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>48075.030499</v>
       </c>
@@ -1252,178 +1668,178 @@
         <v>13.354175</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.000000</v>
+        <v>1246</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.277000</v>
+        <v>-306.27699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>48085.439573</v>
+        <v>48085.439573000003</v>
       </c>
       <c r="G5" s="1">
-        <v>13.357067</v>
+        <v>13.357067000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.850000</v>
+        <v>1270.8499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.681000</v>
+        <v>-263.68099999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>48095.899671</v>
+        <v>48095.899670999999</v>
       </c>
       <c r="L5" s="1">
-        <v>13.359972</v>
+        <v>13.359972000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.550000</v>
+        <v>1305.55</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.933000</v>
+        <v>-201.93299999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>48106.421828</v>
+        <v>48106.421827999999</v>
       </c>
       <c r="Q5" s="1">
         <v>13.362895</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.310000</v>
+        <v>1317.31</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.797000</v>
+        <v>-183.797</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>48116.992044</v>
+        <v>48116.992043999999</v>
       </c>
       <c r="V5" s="1">
         <v>13.365831</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.366000</v>
+        <v>-170.36600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>48127.116910</v>
+        <v>48127.116909999997</v>
       </c>
       <c r="AA5" s="1">
         <v>13.368644</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.320000</v>
+        <v>1347.32</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.577000</v>
+        <v>-168.577</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>48137.985711</v>
+        <v>48137.985711000001</v>
       </c>
       <c r="AF5" s="1">
         <v>13.371663</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.150000</v>
+        <v>1360.15</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.212000</v>
+        <v>-178.21199999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>48148.358087</v>
+        <v>48148.358087000001</v>
       </c>
       <c r="AK5" s="1">
         <v>13.374544</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.720000</v>
+        <v>1380.72</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.175000</v>
+        <v>-208.17500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>48159.000246</v>
+        <v>48159.000246000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.377500</v>
+        <v>13.3775</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.350000</v>
+        <v>1402.35</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.990000</v>
+        <v>-251.99</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>48170.000485</v>
+        <v>48170.000484999997</v>
       </c>
       <c r="AU5" s="1">
         <v>13.380556</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.842000</v>
+        <v>-311.84199999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>48181.129222</v>
+        <v>48181.129222000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.383647</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.330000</v>
+        <v>1446.33</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.842000</v>
+        <v>-363.84199999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>48192.138457</v>
+        <v>48192.138457000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.386705</v>
+        <v>13.386704999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG5" s="1">
-        <v>-611.477000</v>
+        <v>-611.47699999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>48203.471544</v>
@@ -1432,13 +1848,13 @@
         <v>13.389853</v>
       </c>
       <c r="BK5" s="1">
-        <v>1686.120000</v>
+        <v>1686.12</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1055.130000</v>
+        <v>-1055.1300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>48214.492651</v>
@@ -1447,28 +1863,28 @@
         <v>13.392915</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.540000</v>
+        <v>1980.54</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1823.170000</v>
+        <v>-1823.17</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>48225.345123</v>
+        <v>48225.345122999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>13.395929</v>
+        <v>13.395929000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.870000</v>
+        <v>2369.87</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2711.220000</v>
+        <v>-2711.22</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>48236.091902</v>
@@ -1477,31 +1893,31 @@
         <v>13.398914</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.240000</v>
+        <v>2850.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3675.710000</v>
+        <v>-3675.71</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>48247.252880</v>
+        <v>48247.25288</v>
       </c>
       <c r="CD5" s="1">
         <v>13.402015</v>
       </c>
       <c r="CE5" s="1">
-        <v>4256.900000</v>
+        <v>4256.8999999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6002.600000</v>
+        <v>-6002.6</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>48075.713999</v>
       </c>
@@ -1509,58 +1925,58 @@
         <v>13.354365</v>
       </c>
       <c r="C6" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.458000</v>
+        <v>-306.45800000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>48086.126534</v>
+        <v>48086.126534000003</v>
       </c>
       <c r="G6" s="1">
-        <v>13.357257</v>
+        <v>13.357257000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1271.300000</v>
+        <v>1271.3</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.444000</v>
+        <v>-263.44400000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>48096.246870</v>
+        <v>48096.246870000003</v>
       </c>
       <c r="L6" s="1">
-        <v>13.360069</v>
+        <v>13.360068999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.700000</v>
+        <v>1305.7</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.810000</v>
+        <v>-201.81</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>48106.773992</v>
+        <v>48106.773992000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.362993</v>
+        <v>13.362992999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.340000</v>
+        <v>1317.34</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.865000</v>
+        <v>-183.86500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>48117.334808</v>
@@ -1569,270 +1985,270 @@
         <v>13.365926</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.220000</v>
+        <v>1330.22</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.369000</v>
+        <v>-170.369</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>48127.773581</v>
+        <v>48127.773581000001</v>
       </c>
       <c r="AA6" s="1">
         <v>13.368826</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.274000</v>
+        <v>-168.274</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>48138.349776</v>
+        <v>48138.349776000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.371764</v>
+        <v>13.371764000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.310000</v>
+        <v>1360.31</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.165000</v>
+        <v>-178.16499999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>48148.731569</v>
+        <v>48148.731569000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.374648</v>
+        <v>13.374648000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.680000</v>
+        <v>1380.68</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.168000</v>
+        <v>-208.16800000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>48159.363779</v>
+        <v>48159.363778999999</v>
       </c>
       <c r="AP6" s="1">
         <v>13.377601</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.968000</v>
+        <v>-251.96799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>48170.365577</v>
+        <v>48170.365576999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.380657</v>
+        <v>13.380656999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.864000</v>
+        <v>-311.86399999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>48181.508663</v>
+        <v>48181.508663000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.383752</v>
+        <v>13.383751999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.330000</v>
+        <v>1446.33</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.844000</v>
+        <v>-363.84399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>48192.554204</v>
       </c>
       <c r="BE6" s="1">
-        <v>13.386821</v>
+        <v>13.386820999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1531.730000</v>
+        <v>1531.73</v>
       </c>
       <c r="BG6" s="1">
-        <v>-611.520000</v>
+        <v>-611.52</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>48203.653355</v>
+        <v>48203.653355000002</v>
       </c>
       <c r="BJ6" s="1">
         <v>13.389904</v>
       </c>
       <c r="BK6" s="1">
-        <v>1686.200000</v>
+        <v>1686.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1055.070000</v>
+        <v>-1055.07</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>48214.881517</v>
+        <v>48214.881517000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.393023</v>
+        <v>13.393022999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1980.470000</v>
+        <v>1980.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1823.160000</v>
+        <v>-1823.16</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>48225.770651</v>
+        <v>48225.770650999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.396047</v>
+        <v>13.396046999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2369.510000</v>
+        <v>2369.5100000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2711.120000</v>
+        <v>-2711.12</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>48236.527389</v>
+        <v>48236.527389000003</v>
       </c>
       <c r="BY6" s="1">
         <v>13.399035</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2850.360000</v>
+        <v>2850.36</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3676.610000</v>
+        <v>-3676.61</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>48247.770702</v>
+        <v>48247.770702000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.402159</v>
+        <v>13.402158999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4266.680000</v>
+        <v>4266.68</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6013.310000</v>
+        <v>-6013.31</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>48076.062706</v>
+        <v>48076.062705999997</v>
       </c>
       <c r="B7" s="1">
         <v>13.354462</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.357000</v>
+        <v>-306.35700000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>48086.473245</v>
+        <v>48086.473245000001</v>
       </c>
       <c r="G7" s="1">
-        <v>13.357354</v>
+        <v>13.357354000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.800000</v>
+        <v>1270.8</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.872000</v>
+        <v>-263.87200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>48096.592086</v>
+        <v>48096.592085999997</v>
       </c>
       <c r="L7" s="1">
-        <v>13.360164</v>
+        <v>13.360163999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.600000</v>
+        <v>1305.5999999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.647000</v>
+        <v>-201.64699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>48107.430200</v>
+        <v>48107.430200000003</v>
       </c>
       <c r="Q7" s="1">
         <v>13.363175</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.220000</v>
+        <v>1317.22</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.848000</v>
+        <v>-183.84800000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>48117.993002</v>
+        <v>48117.993002000003</v>
       </c>
       <c r="V7" s="1">
         <v>13.366109</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.250000</v>
+        <v>1330.25</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.497000</v>
+        <v>-170.49700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>48128.159776</v>
@@ -1841,739 +2257,739 @@
         <v>13.368933</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.150000</v>
+        <v>1347.15</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.351000</v>
+        <v>-168.351</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>48138.695017</v>
+        <v>48138.695016999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.371860</v>
+        <v>13.37186</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.090000</v>
+        <v>1360.09</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.357000</v>
+        <v>-178.357</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>48149.084227</v>
+        <v>48149.084226999999</v>
       </c>
       <c r="AK7" s="1">
         <v>13.374746</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.750000</v>
+        <v>1380.75</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.099000</v>
+        <v>-208.09899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>48159.722386</v>
+        <v>48159.722386000001</v>
       </c>
       <c r="AP7" s="1">
         <v>13.377701</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.330000</v>
+        <v>1402.33</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.976000</v>
+        <v>-251.976</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>48170.785156</v>
+        <v>48170.785155999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>13.380774</v>
+        <v>13.380774000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.839000</v>
+        <v>-311.839</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>48181.929271</v>
+        <v>48181.929271000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.383869</v>
+        <v>13.383869000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.884000</v>
+        <v>-363.88400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>48192.858120</v>
+        <v>48192.858119999997</v>
       </c>
       <c r="BE7" s="1">
         <v>13.386905</v>
       </c>
       <c r="BF7" s="1">
-        <v>1531.730000</v>
+        <v>1531.73</v>
       </c>
       <c r="BG7" s="1">
-        <v>-611.428000</v>
+        <v>-611.428</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>48204.029513</v>
+        <v>48204.029513000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>13.390008</v>
       </c>
       <c r="BK7" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1055.110000</v>
+        <v>-1055.1099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>48215.302090</v>
+        <v>48215.302089999997</v>
       </c>
       <c r="BO7" s="1">
         <v>13.393139</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.490000</v>
+        <v>1980.49</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1823.300000</v>
+        <v>-1823.3</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>48226.184570</v>
+        <v>48226.184569999998</v>
       </c>
       <c r="BT7" s="1">
         <v>13.396162</v>
       </c>
       <c r="BU7" s="1">
-        <v>2369.690000</v>
+        <v>2369.69</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2710.710000</v>
+        <v>-2710.71</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>48236.959437</v>
+        <v>48236.959436999998</v>
       </c>
       <c r="BY7" s="1">
         <v>13.399155</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2849.840000</v>
+        <v>2849.84</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3675.840000</v>
+        <v>-3675.84</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>48248.288029</v>
+        <v>48248.288029000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.402302</v>
+        <v>13.402302000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4261.410000</v>
+        <v>4261.41</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6014.670000</v>
+        <v>-6014.67</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>48076.403461</v>
+        <v>48076.403461000002</v>
       </c>
       <c r="B8" s="1">
         <v>13.354557</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.042000</v>
+        <v>-306.04199999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>48086.817471</v>
+        <v>48086.817471000002</v>
       </c>
       <c r="G8" s="1">
-        <v>13.357449</v>
+        <v>13.357449000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1271.120000</v>
+        <v>1271.1199999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.640000</v>
+        <v>-264.64</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>48097.250773</v>
       </c>
       <c r="L8" s="1">
-        <v>13.360347</v>
+        <v>13.360347000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.850000</v>
+        <v>1305.8499999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.117000</v>
+        <v>-202.11699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>48107.819528</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.363283</v>
+        <v>13.363282999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.220000</v>
+        <v>1317.22</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.860000</v>
+        <v>-183.86</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>48118.367449</v>
+        <v>48118.367448999998</v>
       </c>
       <c r="V8" s="1">
         <v>13.366213</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.260000</v>
+        <v>1330.26</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.424000</v>
+        <v>-170.42400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>48128.509157</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.369030</v>
+        <v>13.36903</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.320000</v>
+        <v>1347.32</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.404000</v>
+        <v>-168.404</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>48139.034783</v>
+        <v>48139.034783000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.371954</v>
+        <v>13.371954000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.960000</v>
+        <v>1359.96</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.977000</v>
+        <v>-177.977</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>48149.430401</v>
+        <v>48149.430400999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.374842</v>
+        <v>13.374841999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.730000</v>
+        <v>1380.73</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.160000</v>
+        <v>-208.16</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>48160.152454</v>
+        <v>48160.152454000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>13.377820</v>
+        <v>13.37782</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.330000</v>
+        <v>1402.33</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.983000</v>
+        <v>-251.983</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>48171.095687</v>
+        <v>48171.095687000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.380860</v>
+        <v>13.38086</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.865000</v>
+        <v>-311.86500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>48182.224421</v>
+        <v>48182.224420999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.383951</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.862000</v>
+        <v>-363.86200000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>48193.219736</v>
+        <v>48193.219735999999</v>
       </c>
       <c r="BE8" s="1">
         <v>13.387005</v>
       </c>
       <c r="BF8" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG8" s="1">
-        <v>-611.496000</v>
+        <v>-611.49599999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>48204.402999</v>
+        <v>48204.402998999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.390112</v>
       </c>
       <c r="BK8" s="1">
-        <v>1686.170000</v>
+        <v>1686.17</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1055.040000</v>
+        <v>-1055.04</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>48215.697928</v>
+        <v>48215.697928000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.393249</v>
+        <v>13.393249000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.250000</v>
+        <v>1980.25</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1823.260000</v>
+        <v>-1823.26</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>48226.614383</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.396282</v>
+        <v>13.396281999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2369.800000</v>
+        <v>2369.8000000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2710.720000</v>
+        <v>-2710.72</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>48237.379516</v>
+        <v>48237.379516000001</v>
       </c>
       <c r="BY8" s="1">
         <v>13.399272</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2849.550000</v>
+        <v>2849.55</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3676.410000</v>
+        <v>-3676.41</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>48248.842557</v>
+        <v>48248.842557000004</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.402456</v>
+        <v>13.402456000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4257.030000</v>
+        <v>4257.03</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6003.280000</v>
+        <v>-6003.28</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>48077.069094</v>
+        <v>48077.069093999999</v>
       </c>
       <c r="B9" s="1">
-        <v>13.354741</v>
+        <v>13.354741000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.080000</v>
+        <v>1246.08</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.697000</v>
+        <v>-306.697</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>48087.265316</v>
+        <v>48087.265315999997</v>
       </c>
       <c r="G9" s="1">
         <v>13.357574</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.860000</v>
+        <v>1270.8599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.611000</v>
+        <v>-264.61099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>48097.627732</v>
+        <v>48097.627732000001</v>
       </c>
       <c r="L9" s="1">
         <v>13.360452</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.760000</v>
+        <v>1305.76</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.814000</v>
+        <v>-201.81399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>48108.165735</v>
+        <v>48108.165735000002</v>
       </c>
       <c r="Q9" s="1">
         <v>13.363379</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.230000</v>
+        <v>1317.23</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.785000</v>
+        <v>-183.785</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>48118.710680</v>
+        <v>48118.710679999997</v>
       </c>
       <c r="V9" s="1">
-        <v>13.366309</v>
+        <v>13.366308999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.393000</v>
+        <v>-170.393</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>48128.858860</v>
+        <v>48128.85886</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.369127</v>
+        <v>13.369127000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.336000</v>
+        <v>-168.33600000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>48139.461806</v>
+        <v>48139.461805999999</v>
       </c>
       <c r="AF9" s="1">
         <v>13.372073</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.160000</v>
+        <v>1360.16</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.017000</v>
+        <v>-178.017</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>48149.858448</v>
+        <v>48149.858447999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.374961</v>
+        <v>13.374961000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.710000</v>
+        <v>1380.71</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.164000</v>
+        <v>-208.16399999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>48160.441091</v>
+        <v>48160.441091000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.377900</v>
+        <v>13.3779</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.009000</v>
+        <v>-252.00899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>48171.460243</v>
+        <v>48171.460243000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.380961</v>
+        <v>13.380960999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.930000</v>
+        <v>1426.93</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.861000</v>
+        <v>-311.86099999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>48182.585973</v>
+        <v>48182.585973000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.384052</v>
+        <v>13.384052000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.813000</v>
+        <v>-363.81299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>48193.579828</v>
+        <v>48193.579828000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.387106</v>
+        <v>13.387105999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG9" s="1">
-        <v>-611.423000</v>
+        <v>-611.423</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>48205.154934</v>
+        <v>48205.154933999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.390321</v>
       </c>
       <c r="BK9" s="1">
-        <v>1686.140000</v>
+        <v>1686.14</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1055.050000</v>
+        <v>-1055.05</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>48216.123466</v>
+        <v>48216.123465999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.393368</v>
+        <v>13.393368000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.440000</v>
+        <v>1980.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1823.260000</v>
+        <v>-1823.26</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>48227.039419</v>
+        <v>48227.039419000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>13.396400</v>
+        <v>13.3964</v>
       </c>
       <c r="BU9" s="1">
-        <v>2369.990000</v>
+        <v>2369.9899999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2710.570000</v>
+        <v>-2710.57</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>48237.802139</v>
+        <v>48237.802138999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.399389</v>
+        <v>13.399388999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2850.020000</v>
+        <v>2850.02</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3676.180000</v>
+        <v>-3676.18</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>48249.373308</v>
+        <v>48249.373308000002</v>
       </c>
       <c r="CD9" s="1">
         <v>13.402604</v>
       </c>
       <c r="CE9" s="1">
-        <v>4266.620000</v>
+        <v>4266.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6013.510000</v>
+        <v>-6013.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>48077.429648</v>
+        <v>48077.429647999998</v>
       </c>
       <c r="B10" s="1">
         <v>13.354842</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.060000</v>
+        <v>1246.06</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.545000</v>
+        <v>-306.54500000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>48087.533154</v>
+        <v>48087.533153999997</v>
       </c>
       <c r="G10" s="1">
-        <v>13.357648</v>
+        <v>13.357647999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.070000</v>
+        <v>1271.07</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.696000</v>
+        <v>-264.69600000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>48097.973444</v>
+        <v>48097.973444000003</v>
       </c>
       <c r="L10" s="1">
         <v>13.360548</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.690000</v>
+        <v>1305.69</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.744000</v>
+        <v>-201.744</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>48108.514422</v>
@@ -2582,420 +2998,420 @@
         <v>13.363476</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.340000</v>
+        <v>1317.34</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.824000</v>
+        <v>-183.82400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>48119.060564</v>
+        <v>48119.060563999999</v>
       </c>
       <c r="V10" s="1">
         <v>13.366406</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.190000</v>
+        <v>1330.19</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.500000</v>
+        <v>-170.5</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>48129.281916</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.369245</v>
+        <v>13.369244999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.210000</v>
+        <v>1347.21</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.240000</v>
+        <v>-168.24</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>48139.727663</v>
+        <v>48139.727662999998</v>
       </c>
       <c r="AF10" s="1">
         <v>13.372147</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.980000</v>
+        <v>1359.98</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.980000</v>
+        <v>-177.98</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>48150.132239</v>
+        <v>48150.132238999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>13.375037</v>
+        <v>13.375037000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.680000</v>
+        <v>1380.68</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.149000</v>
+        <v>-208.149</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>48160.804657</v>
+        <v>48160.804657000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.378001</v>
+        <v>13.378000999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.971000</v>
+        <v>-251.971</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>48171.833204</v>
+        <v>48171.833204000002</v>
       </c>
       <c r="AU10" s="1">
         <v>13.381065</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.873000</v>
+        <v>-311.87299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>48182.940152</v>
+        <v>48182.940152000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.384150</v>
+        <v>13.38415</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.833000</v>
+        <v>-363.83300000000003</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>48194.308950</v>
+        <v>48194.308949999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.387308</v>
+        <v>13.387308000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1531.670000</v>
+        <v>1531.67</v>
       </c>
       <c r="BG10" s="1">
-        <v>-611.459000</v>
+        <v>-611.45899999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>48205.528423</v>
+        <v>48205.528423000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.390425</v>
       </c>
       <c r="BK10" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1055.040000</v>
+        <v>-1055.04</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>48216.516297</v>
+        <v>48216.516297000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.393477</v>
+        <v>13.393477000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.420000</v>
+        <v>1980.42</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1823.170000</v>
+        <v>-1823.17</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>48227.453083</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.396515</v>
+        <v>13.396515000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2370.110000</v>
+        <v>2370.11</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2710.280000</v>
+        <v>-2710.28</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>48238.525311</v>
+        <v>48238.525310999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.399590</v>
+        <v>13.39959</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2850.160000</v>
+        <v>2850.16</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3675.890000</v>
+        <v>-3675.89</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>48250.208539</v>
+        <v>48250.208538999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.402836</v>
+        <v>13.402836000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4275.850000</v>
+        <v>4275.8500000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6001.130000</v>
+        <v>-6001.13</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>48077.771887</v>
+        <v>48077.771887000003</v>
       </c>
       <c r="B11" s="1">
         <v>13.354937</v>
       </c>
       <c r="C11" s="1">
-        <v>1246.190000</v>
+        <v>1246.19</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.360000</v>
+        <v>-306.36</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>48087.876420</v>
+        <v>48087.876420000001</v>
       </c>
       <c r="G11" s="1">
-        <v>13.357743</v>
+        <v>13.357742999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.600000</v>
+        <v>1270.5999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.991000</v>
+        <v>-263.99099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>48098.320150</v>
+        <v>48098.32015</v>
       </c>
       <c r="L11" s="1">
-        <v>13.360644</v>
+        <v>13.360644000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.560000</v>
+        <v>1305.56</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.861000</v>
+        <v>-201.86099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>48108.930102</v>
+        <v>48108.930101999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.363592</v>
+        <v>13.363592000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.320000</v>
+        <v>1317.32</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.802000</v>
+        <v>-183.80199999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>48119.501801</v>
+        <v>48119.501800999999</v>
       </c>
       <c r="V11" s="1">
-        <v>13.366528</v>
+        <v>13.366528000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.170000</v>
+        <v>1330.17</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.409000</v>
+        <v>-170.40899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>48129.555244</v>
+        <v>48129.555244000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.369321</v>
+        <v>13.369320999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.315000</v>
+        <v>-168.315</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>48140.067420</v>
+        <v>48140.067419999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.372241</v>
+        <v>13.372241000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.283000</v>
+        <v>-178.28299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>48150.482416</v>
+        <v>48150.482415999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.375134</v>
+        <v>13.375133999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.660000</v>
+        <v>1380.66</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.152000</v>
+        <v>-208.15199999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>48161.164289</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.378101</v>
+        <v>13.378100999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.360000</v>
+        <v>1402.36</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.926000</v>
+        <v>-251.92599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>48172.553919</v>
+        <v>48172.553918999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>13.381265</v>
+        <v>13.381265000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.877000</v>
+        <v>-311.87700000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>48183.659812</v>
+        <v>48183.659811999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.384350</v>
+        <v>13.38435</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.796000</v>
+        <v>-363.79599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>48194.687213</v>
+        <v>48194.687212999997</v>
       </c>
       <c r="BE11" s="1">
         <v>13.387413</v>
       </c>
       <c r="BF11" s="1">
-        <v>1531.730000</v>
+        <v>1531.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-611.438000</v>
+        <v>-611.43799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>48205.906870</v>
+        <v>48205.906869999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>13.390530</v>
+        <v>13.39053</v>
       </c>
       <c r="BK11" s="1">
-        <v>1686.130000</v>
+        <v>1686.13</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1055.070000</v>
+        <v>-1055.07</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>48216.936934</v>
+        <v>48216.936933999998</v>
       </c>
       <c r="BO11" s="1">
         <v>13.393594</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.440000</v>
+        <v>1980.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1823.010000</v>
+        <v>-1823.01</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>48228.201577</v>
@@ -3004,210 +3420,210 @@
         <v>13.396723</v>
       </c>
       <c r="BU11" s="1">
-        <v>2369.850000</v>
+        <v>2369.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2710.170000</v>
+        <v>-2710.17</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>48238.645341</v>
+        <v>48238.645341000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.399624</v>
+        <v>13.399623999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.760000</v>
+        <v>2849.76</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3675.940000</v>
+        <v>-3675.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>48250.407931</v>
+        <v>48250.407931000002</v>
       </c>
       <c r="CD11" s="1">
         <v>13.402891</v>
       </c>
       <c r="CE11" s="1">
-        <v>4260.740000</v>
+        <v>4260.74</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5992.640000</v>
+        <v>-5992.64</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>48078.112175</v>
+        <v>48078.112175000002</v>
       </c>
       <c r="B12" s="1">
         <v>13.355031</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.374000</v>
+        <v>-306.37400000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>48088.299504</v>
+        <v>48088.299504000002</v>
       </c>
       <c r="G12" s="1">
         <v>13.357861</v>
       </c>
       <c r="H12" s="1">
-        <v>1271.480000</v>
+        <v>1271.48</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.209000</v>
+        <v>-264.209</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>48098.740790</v>
+        <v>48098.740790000003</v>
       </c>
       <c r="L12" s="1">
         <v>13.360761</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.630000</v>
+        <v>1305.6300000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.788000</v>
+        <v>-201.78800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>48109.226182</v>
+        <v>48109.226181999999</v>
       </c>
       <c r="Q12" s="1">
         <v>13.363674</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.340000</v>
+        <v>1317.34</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.868000</v>
+        <v>-183.86799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>48119.752775</v>
+        <v>48119.752775000001</v>
       </c>
       <c r="V12" s="1">
         <v>13.366598</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.250000</v>
+        <v>1330.25</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.612000</v>
+        <v>-170.61199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>48129.907371</v>
+        <v>48129.907371000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.369419</v>
+        <v>13.369419000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.370000</v>
+        <v>-168.37</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>48140.413629</v>
+        <v>48140.413629000002</v>
       </c>
       <c r="AF12" s="1">
         <v>13.372337</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.280000</v>
+        <v>1360.28</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.131000</v>
+        <v>-178.131</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>48150.827170</v>
+        <v>48150.827169999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.375230</v>
+        <v>13.37523</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.152000</v>
+        <v>-208.15199999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>48161.892416</v>
+        <v>48161.892416000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.378303</v>
+        <v>13.378303000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.400000</v>
+        <v>1402.4</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.946000</v>
+        <v>-251.946</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>48172.919972</v>
+        <v>48172.919972000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.381367</v>
+        <v>13.381366999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.920000</v>
+        <v>1426.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.856000</v>
+        <v>-311.85599999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>48184.019906</v>
+        <v>48184.019906000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>13.384450</v>
+        <v>13.384449999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.841000</v>
+        <v>-363.84100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>48195.045972</v>
@@ -3216,43 +3632,43 @@
         <v>13.387513</v>
       </c>
       <c r="BF12" s="1">
-        <v>1531.650000</v>
+        <v>1531.65</v>
       </c>
       <c r="BG12" s="1">
-        <v>-611.447000</v>
+        <v>-611.447</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>48206.618132</v>
+        <v>48206.618132000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.390727</v>
       </c>
       <c r="BK12" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1055.050000</v>
+        <v>-1055.05</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>48217.640230</v>
+        <v>48217.640229999997</v>
       </c>
       <c r="BO12" s="1">
         <v>13.393789</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.320000</v>
+        <v>1980.32</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1823.090000</v>
+        <v>-1823.09</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>48228.312649</v>
@@ -3261,165 +3677,165 @@
         <v>13.396754</v>
       </c>
       <c r="BU12" s="1">
-        <v>2370.190000</v>
+        <v>2370.19</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2709.840000</v>
+        <v>-2709.84</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>48239.080329</v>
+        <v>48239.080328999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.399745</v>
+        <v>13.399744999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.680000</v>
+        <v>2849.68</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3676.510000</v>
+        <v>-3676.51</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>48250.925287</v>
+        <v>48250.925286999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.403035</v>
+        <v>13.403034999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4257.830000</v>
+        <v>4257.83</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5994.390000</v>
+        <v>-5994.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>48078.534766</v>
+        <v>48078.534765999997</v>
       </c>
       <c r="B13" s="1">
-        <v>13.355149</v>
+        <v>13.355149000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1246.380000</v>
+        <v>1246.3800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.560000</v>
+        <v>-306.56</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>48088.569332</v>
+        <v>48088.569331999999</v>
       </c>
       <c r="G13" s="1">
         <v>13.357936</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.160000</v>
+        <v>1270.1600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.549000</v>
+        <v>-264.54899999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>48099.021527</v>
+        <v>48099.021526999997</v>
       </c>
       <c r="L13" s="1">
         <v>13.360839</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.586000</v>
+        <v>-201.58600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>48109.571925</v>
+        <v>48109.571924999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.363770</v>
+        <v>13.363770000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.270000</v>
+        <v>1317.27</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.946000</v>
+        <v>-183.946</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>48120.105927</v>
+        <v>48120.105926999997</v>
       </c>
       <c r="V13" s="1">
-        <v>13.366696</v>
+        <v>13.366695999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.270000</v>
+        <v>1330.27</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.442000</v>
+        <v>-170.44200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>48130.253577</v>
+        <v>48130.253577000003</v>
       </c>
       <c r="AA13" s="1">
         <v>13.369515</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.240000</v>
+        <v>1347.24</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.425000</v>
+        <v>-168.42500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>48141.099595</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.372528</v>
+        <v>13.372528000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.230000</v>
+        <v>1360.23</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.290000</v>
+        <v>-178.29</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>48151.527021</v>
+        <v>48151.527021000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.375424</v>
+        <v>13.375424000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.177000</v>
+        <v>-208.17699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>48162.269344</v>
@@ -3428,43 +3844,43 @@
         <v>13.378408</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.380000</v>
+        <v>1402.38</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.959000</v>
+        <v>-251.959</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>48173.284529</v>
+        <v>48173.284528999997</v>
       </c>
       <c r="AU13" s="1">
         <v>13.381468</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.940000</v>
+        <v>1426.94</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.869000</v>
+        <v>-311.86900000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>48184.378547</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13.384550</v>
+        <v>13.384550000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.844000</v>
+        <v>-363.84399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>48195.718083</v>
@@ -3473,739 +3889,739 @@
         <v>13.387699</v>
       </c>
       <c r="BF13" s="1">
-        <v>1531.740000</v>
+        <v>1531.74</v>
       </c>
       <c r="BG13" s="1">
-        <v>-611.448000</v>
+        <v>-611.44799999999998</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>48207.055143</v>
+        <v>48207.055142999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.390849</v>
+        <v>13.390848999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1686.110000</v>
+        <v>1686.11</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1055.070000</v>
+        <v>-1055.07</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>48217.772691</v>
+        <v>48217.772690999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.393826</v>
+        <v>13.393826000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.250000</v>
+        <v>1980.25</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1823.080000</v>
+        <v>-1823.08</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>48228.754615</v>
+        <v>48228.754614999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.396876</v>
+        <v>13.396876000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2370.040000</v>
+        <v>2370.04</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2709.560000</v>
+        <v>-2709.56</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>48239.498922</v>
+        <v>48239.498921999999</v>
       </c>
       <c r="BY13" s="1">
         <v>13.399861</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2849.840000</v>
+        <v>2849.84</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3676.210000</v>
+        <v>-3676.21</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>48251.486233</v>
+        <v>48251.486233000003</v>
       </c>
       <c r="CD13" s="1">
         <v>13.403191</v>
       </c>
       <c r="CE13" s="1">
-        <v>4269.370000</v>
+        <v>4269.37</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5996.300000</v>
+        <v>-5996.3</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>48078.810509</v>
+        <v>48078.810509000003</v>
       </c>
       <c r="B14" s="1">
-        <v>13.355225</v>
+        <v>13.355225000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.134000</v>
+        <v>-306.13400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>48088.915504</v>
+        <v>48088.915503999997</v>
       </c>
       <c r="G14" s="1">
         <v>13.358032</v>
       </c>
       <c r="H14" s="1">
-        <v>1271.320000</v>
+        <v>1271.32</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.656000</v>
+        <v>-264.65600000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>48099.366707</v>
+        <v>48099.366707000001</v>
       </c>
       <c r="L14" s="1">
         <v>13.360935</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.470000</v>
+        <v>1305.47</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.993000</v>
+        <v>-201.99299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>48109.920119</v>
+        <v>48109.920119000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.363867</v>
+        <v>13.363867000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.220000</v>
+        <v>1317.22</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.812000</v>
+        <v>-183.81200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>48120.669422</v>
+        <v>48120.669421999999</v>
       </c>
       <c r="V14" s="1">
-        <v>13.366853</v>
+        <v>13.366853000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.040000</v>
+        <v>1330.04</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.378000</v>
+        <v>-170.37799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>48130.951946</v>
+        <v>48130.951946000001</v>
       </c>
       <c r="AA14" s="1">
         <v>13.369709</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.210000</v>
+        <v>1347.21</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.490000</v>
+        <v>-168.49</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>48141.443850</v>
+        <v>48141.443850000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.372623</v>
+        <v>13.372623000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.215000</v>
+        <v>-178.215</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>48151.874334</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.375521</v>
+        <v>13.375521000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.670000</v>
+        <v>1380.67</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.121000</v>
+        <v>-208.12100000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>48162.647823</v>
+        <v>48162.647822999999</v>
       </c>
       <c r="AP14" s="1">
         <v>13.378513</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.350000</v>
+        <v>1402.35</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.937000</v>
+        <v>-251.93700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>48173.960545</v>
+        <v>48173.960545000002</v>
       </c>
       <c r="AU14" s="1">
         <v>13.381656</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.865000</v>
+        <v>-311.86500000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>48185.048114</v>
+        <v>48185.048113999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.384736</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.825000</v>
+        <v>-363.82499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>48196.163954</v>
+        <v>48196.163954000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.387823</v>
+        <v>13.387822999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-611.445000</v>
+        <v>-611.44500000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>48207.458356</v>
+        <v>48207.458356000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.390961</v>
+        <v>13.390961000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1686.120000</v>
+        <v>1686.12</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1055.020000</v>
+        <v>-1055.02</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>48218.181365</v>
+        <v>48218.181364999997</v>
       </c>
       <c r="BO14" s="1">
         <v>13.393939</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.280000</v>
+        <v>1980.28</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1823.000000</v>
+        <v>-1823</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>48229.165799</v>
+        <v>48229.165799000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.396990</v>
+        <v>13.396990000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.920000</v>
+        <v>2369.92</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2709.580000</v>
+        <v>-2709.58</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>48239.923032</v>
+        <v>48239.923031999999</v>
       </c>
       <c r="BY14" s="1">
         <v>13.399979</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.900000</v>
+        <v>2849.9</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3675.740000</v>
+        <v>-3675.74</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>48252.006573</v>
+        <v>48252.006572999999</v>
       </c>
       <c r="CD14" s="1">
         <v>13.403335</v>
       </c>
       <c r="CE14" s="1">
-        <v>4254.420000</v>
+        <v>4254.42</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5999.730000</v>
+        <v>-5999.73</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>48079.156253</v>
+        <v>48079.156253000001</v>
       </c>
       <c r="B15" s="1">
         <v>13.355321</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.200000</v>
+        <v>1246.2</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.472000</v>
+        <v>-306.47199999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>48089.257247</v>
+        <v>48089.257247000001</v>
       </c>
       <c r="G15" s="1">
         <v>13.358127</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.310000</v>
+        <v>1271.31</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.392000</v>
+        <v>-264.392</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>48099.709474</v>
+        <v>48099.709474000003</v>
       </c>
       <c r="L15" s="1">
-        <v>13.361030</v>
+        <v>13.36103</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.610000</v>
+        <v>1305.6099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.159000</v>
+        <v>-202.15899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>48110.618453</v>
+        <v>48110.618453000003</v>
       </c>
       <c r="Q15" s="1">
         <v>13.364061</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.300000</v>
+        <v>1317.3</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.765000</v>
+        <v>-183.76499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>48120.795899</v>
+        <v>48120.795898999997</v>
       </c>
       <c r="V15" s="1">
-        <v>13.366888</v>
+        <v>13.366887999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.150000</v>
+        <v>1330.15</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.278000</v>
+        <v>-170.27799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>48131.299641</v>
+        <v>48131.299640999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>13.369805</v>
+        <v>13.369804999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.418000</v>
+        <v>-168.41800000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>48141.785066</v>
+        <v>48141.785065999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.372718</v>
+        <v>13.372718000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.211000</v>
+        <v>-178.21100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>48152.224365</v>
+        <v>48152.224365000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.375618</v>
+        <v>13.375617999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.710000</v>
+        <v>1380.71</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.186000</v>
+        <v>-208.18600000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>48163.318878</v>
+        <v>48163.318877999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.378700</v>
+        <v>13.3787</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.360000</v>
+        <v>1402.36</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.947000</v>
+        <v>-251.947</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>48174.412895</v>
+        <v>48174.412895000001</v>
       </c>
       <c r="AU15" s="1">
         <v>13.381781</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.862000</v>
+        <v>-311.86200000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>48185.460785</v>
+        <v>48185.460785000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.384850</v>
+        <v>13.38485</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.839000</v>
+        <v>-363.839</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>48196.524547</v>
+        <v>48196.524547000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.387923</v>
+        <v>13.387923000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1531.740000</v>
+        <v>1531.74</v>
       </c>
       <c r="BG15" s="1">
-        <v>-611.405000</v>
+        <v>-611.40499999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>48207.834322</v>
+        <v>48207.834322000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.391065</v>
+        <v>13.391064999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1686.060000</v>
+        <v>1686.06</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1055.000000</v>
+        <v>-1055</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>48218.579157</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.394050</v>
+        <v>13.39405</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.410000</v>
+        <v>1980.41</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1823.110000</v>
+        <v>-1823.11</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>48229.596294</v>
+        <v>48229.596294000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.397110</v>
+        <v>13.39711</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.920000</v>
+        <v>2369.92</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2709.180000</v>
+        <v>-2709.18</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>48240.349560</v>
+        <v>48240.349560000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.400097</v>
+        <v>13.400097000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2849.480000</v>
+        <v>2849.48</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3675.560000</v>
+        <v>-3675.56</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>48252.522872</v>
+        <v>48252.522872000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.403479</v>
+        <v>13.403479000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4259.110000</v>
+        <v>4259.1099999999997</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5992.780000</v>
+        <v>-5992.78</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>48079.498460</v>
+        <v>48079.498460000003</v>
       </c>
       <c r="B16" s="1">
         <v>13.355416</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.277000</v>
+        <v>-306.27699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>48089.948671</v>
+        <v>48089.948670999998</v>
       </c>
       <c r="G16" s="1">
         <v>13.358319</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.410000</v>
+        <v>1270.4100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.593000</v>
+        <v>-264.59300000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>48100.399413</v>
+        <v>48100.399412999999</v>
       </c>
       <c r="L16" s="1">
         <v>13.361222</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.760000</v>
+        <v>1305.76</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.826000</v>
+        <v>-201.82599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>48110.971107</v>
+        <v>48110.971106999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.364159</v>
+        <v>13.364159000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.320000</v>
+        <v>1317.32</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.738000</v>
+        <v>-183.738</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>48121.136615</v>
+        <v>48121.136615000003</v>
       </c>
       <c r="V16" s="1">
         <v>13.366982</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.200000</v>
+        <v>1330.2</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.448000</v>
+        <v>-170.44800000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>48131.647831</v>
+        <v>48131.647831000002</v>
       </c>
       <c r="AA16" s="1">
         <v>13.369902</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.290000</v>
+        <v>1347.29</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.277000</v>
+        <v>-168.27699999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>48142.445769</v>
+        <v>48142.445768999998</v>
       </c>
       <c r="AF16" s="1">
         <v>13.372902</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.050000</v>
+        <v>1360.05</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.158000</v>
+        <v>-178.15799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>48152.892512</v>
+        <v>48152.892511999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.375803</v>
+        <v>13.375802999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.139000</v>
+        <v>-208.13900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>48163.730557</v>
+        <v>48163.730557000003</v>
       </c>
       <c r="AP16" s="1">
         <v>13.378814</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.340000</v>
+        <v>1402.34</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.973000</v>
+        <v>-251.97300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>48174.777962</v>
@@ -4214,103 +4630,103 @@
         <v>13.381883</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.842000</v>
+        <v>-311.84199999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>48185.840261</v>
+        <v>48185.840260999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.384956</v>
+        <v>13.384956000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.819000</v>
+        <v>-363.81900000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>48196.882690</v>
+        <v>48196.882689999999</v>
       </c>
       <c r="BE16" s="1">
         <v>13.388023</v>
       </c>
       <c r="BF16" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG16" s="1">
-        <v>-611.412000</v>
+        <v>-611.41200000000003</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>48208.257440</v>
+        <v>48208.257440000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.391183</v>
       </c>
       <c r="BK16" s="1">
-        <v>1686.100000</v>
+        <v>1686.1</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1055.040000</v>
+        <v>-1055.04</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>48219.003765</v>
+        <v>48219.003765000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>13.394168</v>
+        <v>13.394168000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.290000</v>
+        <v>1980.29</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1823.090000</v>
+        <v>-1823.09</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>48230.023381</v>
+        <v>48230.023380999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.397229</v>
+        <v>13.397228999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2370.330000</v>
+        <v>2370.33</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2708.970000</v>
+        <v>-2708.97</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>48240.766507</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.400213</v>
+        <v>13.400213000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.840000</v>
+        <v>2849.84</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3676.310000</v>
+        <v>-3676.31</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>48253.075912</v>
@@ -4319,60 +4735,60 @@
         <v>13.403632</v>
       </c>
       <c r="CE16" s="1">
-        <v>4266.500000</v>
+        <v>4266.5</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5994.940000</v>
+        <v>-5994.94</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>48080.179469</v>
+        <v>48080.179469000002</v>
       </c>
       <c r="B17" s="1">
-        <v>13.355605</v>
+        <v>13.355605000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1246.370000</v>
+        <v>1246.3699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.724000</v>
+        <v>-306.72399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>48090.297359</v>
+        <v>48090.297358999997</v>
       </c>
       <c r="G17" s="1">
         <v>13.358416</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.830000</v>
+        <v>1271.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.561000</v>
+        <v>-263.56099999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>48100.748560</v>
+        <v>48100.74856</v>
       </c>
       <c r="L17" s="1">
         <v>13.361319</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.740000</v>
+        <v>1305.74</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.182000</v>
+        <v>-202.18199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>48111.317315</v>
@@ -4381,28 +4797,28 @@
         <v>13.364255</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.340000</v>
+        <v>1317.34</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.856000</v>
+        <v>-183.85599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>48121.795332</v>
+        <v>48121.795332000002</v>
       </c>
       <c r="V17" s="1">
         <v>13.367165</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.120000</v>
+        <v>1330.12</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.438000</v>
+        <v>-170.43799999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>48132.305063</v>
@@ -4411,360 +4827,360 @@
         <v>13.370085</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.220000</v>
+        <v>1347.22</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.397000</v>
+        <v>-168.39699999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>48142.816250</v>
+        <v>48142.816250000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.373005</v>
+        <v>13.373004999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.106000</v>
+        <v>-178.10599999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>48153.278363</v>
+        <v>48153.278362999998</v>
       </c>
       <c r="AK17" s="1">
         <v>13.375911</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.680000</v>
+        <v>1380.68</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.135000</v>
+        <v>-208.13499999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>48164.116940</v>
+        <v>48164.11694</v>
       </c>
       <c r="AP17" s="1">
         <v>13.378921</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.025000</v>
+        <v>-252.02500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>48175.141519</v>
+        <v>48175.141518999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.381984</v>
+        <v>13.381983999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.940000</v>
+        <v>1426.94</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.856000</v>
+        <v>-311.85599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>48186.197345</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.385055</v>
+        <v>13.385054999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.823000</v>
+        <v>-363.82299999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>48197.310241</v>
+        <v>48197.310240999999</v>
       </c>
       <c r="BE17" s="1">
         <v>13.388142</v>
       </c>
       <c r="BF17" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG17" s="1">
-        <v>-611.425000</v>
+        <v>-611.42499999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>48208.609570</v>
+        <v>48208.609570000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.391280</v>
+        <v>13.39128</v>
       </c>
       <c r="BK17" s="1">
-        <v>1686.130000</v>
+        <v>1686.13</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1054.950000</v>
+        <v>-1054.95</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>48219.396564</v>
+        <v>48219.396564000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>13.394277</v>
+        <v>13.394277000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.200000</v>
+        <v>1980.2</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1823.030000</v>
+        <v>-1823.03</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>48230.440517</v>
+        <v>48230.440517000003</v>
       </c>
       <c r="BT17" s="1">
         <v>13.397345</v>
       </c>
       <c r="BU17" s="1">
-        <v>2370.010000</v>
+        <v>2370.0100000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2708.940000</v>
+        <v>-2708.94</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>48241.210160</v>
+        <v>48241.210160000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.400336</v>
+        <v>13.400335999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2850.570000</v>
+        <v>2850.57</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3675.850000</v>
+        <v>-3675.85</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>48253.602695</v>
+        <v>48253.602695000001</v>
       </c>
       <c r="CD17" s="1">
         <v>13.403779</v>
       </c>
       <c r="CE17" s="1">
-        <v>4253.250000</v>
+        <v>4253.25</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6002.230000</v>
+        <v>-6002.23</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>48080.520747</v>
+        <v>48080.520747000002</v>
       </c>
       <c r="B18" s="1">
-        <v>13.355700</v>
+        <v>13.355700000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1246.140000</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.441000</v>
+        <v>-306.44099999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>48090.647040</v>
+        <v>48090.647040000003</v>
       </c>
       <c r="G18" s="1">
         <v>13.358513</v>
       </c>
       <c r="H18" s="1">
-        <v>1271.130000</v>
+        <v>1271.1300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.056000</v>
+        <v>-264.05599999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>48101.096284</v>
+        <v>48101.096283999999</v>
       </c>
       <c r="L18" s="1">
         <v>13.361416</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.730000</v>
+        <v>1305.73</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.023000</v>
+        <v>-202.023</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>48111.972034</v>
+        <v>48111.972033999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.364437</v>
+        <v>13.364437000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.851000</v>
+        <v>-183.851</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>48122.168324</v>
+        <v>48122.168323999998</v>
       </c>
       <c r="V18" s="1">
         <v>13.367269</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.498000</v>
+        <v>-170.49799999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>48132.692701</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.370192</v>
+        <v>13.370191999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.417000</v>
+        <v>-168.417</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>48143.160969</v>
+        <v>48143.160968999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>13.373100</v>
+        <v>13.373100000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.050000</v>
+        <v>1360.05</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.214000</v>
+        <v>-178.214</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>48153.617659</v>
+        <v>48153.617659000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>13.376005</v>
+        <v>13.376004999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.660000</v>
+        <v>1380.66</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.154000</v>
+        <v>-208.154</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>48164.480508</v>
+        <v>48164.480508000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.379022</v>
+        <v>13.379022000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.350000</v>
+        <v>1402.35</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.914000</v>
+        <v>-251.91399999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>48175.569069</v>
+        <v>48175.569068999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.382103</v>
+        <v>13.382103000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.883000</v>
+        <v>-311.88299999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>48186.923029</v>
+        <v>48186.923028999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.385256</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.834000</v>
+        <v>-363.834</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>48197.609297</v>
+        <v>48197.609297000003</v>
       </c>
       <c r="BE18" s="1">
         <v>13.388225</v>
       </c>
       <c r="BF18" s="1">
-        <v>1531.700000</v>
+        <v>1531.7</v>
       </c>
       <c r="BG18" s="1">
-        <v>-611.435000</v>
+        <v>-611.43499999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>48208.985041</v>
@@ -4773,28 +5189,28 @@
         <v>13.391385</v>
       </c>
       <c r="BK18" s="1">
-        <v>1686.090000</v>
+        <v>1686.09</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1055.010000</v>
+        <v>-1055.01</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>48219.817171</v>
+        <v>48219.817171000002</v>
       </c>
       <c r="BO18" s="1">
         <v>13.394394</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.220000</v>
+        <v>1980.22</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1822.950000</v>
+        <v>-1822.95</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>48230.867542</v>
@@ -4803,46 +5219,46 @@
         <v>13.397463</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.800000</v>
+        <v>2369.8000000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2708.700000</v>
+        <v>-2708.7</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>48241.632940</v>
+        <v>48241.632940000003</v>
       </c>
       <c r="BY18" s="1">
         <v>13.400454</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.500000</v>
+        <v>2849.5</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3675.570000</v>
+        <v>-3675.57</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>48254.124455</v>
+        <v>48254.124454999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.403923</v>
+        <v>13.403923000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.070000</v>
+        <v>4274.07</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6007.190000</v>
+        <v>-6007.19</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>48080.865435</v>
       </c>
@@ -4850,707 +5266,707 @@
         <v>13.355796</v>
       </c>
       <c r="C19" s="1">
-        <v>1246.210000</v>
+        <v>1246.21</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.422000</v>
+        <v>-306.42200000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>48091.289358</v>
+        <v>48091.289358000002</v>
       </c>
       <c r="G19" s="1">
         <v>13.358691</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.890000</v>
+        <v>1270.8900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.314000</v>
+        <v>-264.31400000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>48101.750977</v>
+        <v>48101.750977000003</v>
       </c>
       <c r="L19" s="1">
         <v>13.361597</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.760000</v>
+        <v>1305.76</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.726000</v>
+        <v>-201.726</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>48112.361890</v>
+        <v>48112.36189</v>
       </c>
       <c r="Q19" s="1">
         <v>13.364545</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.260000</v>
+        <v>1317.26</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.816000</v>
+        <v>-183.816</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>48122.517973</v>
+        <v>48122.517973000002</v>
       </c>
       <c r="V19" s="1">
-        <v>13.367366</v>
+        <v>13.367366000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.020000</v>
+        <v>1330.02</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.416000</v>
+        <v>-170.416</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>48133.041131</v>
+        <v>48133.041130999998</v>
       </c>
       <c r="AA19" s="1">
         <v>13.370289</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.170000</v>
+        <v>1347.17</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.492000</v>
+        <v>-168.49199999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>48143.506681</v>
+        <v>48143.506680999999</v>
       </c>
       <c r="AF19" s="1">
         <v>13.373196</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.080000</v>
+        <v>1360.08</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.288000</v>
+        <v>-178.28800000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>48154.045674</v>
+        <v>48154.045674000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.376124</v>
+        <v>13.376124000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.145000</v>
+        <v>-208.14500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>48164.894668</v>
+        <v>48164.894668000001</v>
       </c>
       <c r="AP19" s="1">
         <v>13.379137</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.330000</v>
+        <v>1402.33</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.959000</v>
+        <v>-251.959</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>48175.873124</v>
+        <v>48175.873123999998</v>
       </c>
       <c r="AU19" s="1">
         <v>13.382187</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.920000</v>
+        <v>1426.92</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.845000</v>
+        <v>-311.84500000000003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>48187.298491</v>
+        <v>48187.298491000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.385361</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.812000</v>
+        <v>-363.81200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>48197.971377</v>
+        <v>48197.971377000002</v>
       </c>
       <c r="BE19" s="1">
         <v>13.388325</v>
       </c>
       <c r="BF19" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG19" s="1">
-        <v>-611.356000</v>
+        <v>-611.35599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>48209.359025</v>
+        <v>48209.359024999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.391489</v>
       </c>
       <c r="BK19" s="1">
-        <v>1686.100000</v>
+        <v>1686.1</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1055.010000</v>
+        <v>-1055.01</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>48220.643012</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.394623</v>
+        <v>13.394622999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.180000</v>
+        <v>1980.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1822.950000</v>
+        <v>-1822.95</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>48231.294137</v>
+        <v>48231.294136999997</v>
       </c>
       <c r="BT19" s="1">
         <v>13.397582</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.800000</v>
+        <v>2369.8000000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2708.260000</v>
+        <v>-2708.26</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>48242.057783</v>
+        <v>48242.057782999997</v>
       </c>
       <c r="BY19" s="1">
         <v>13.400572</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2849.610000</v>
+        <v>2849.61</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3675.750000</v>
+        <v>-3675.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>48254.663605</v>
+        <v>48254.663605000002</v>
       </c>
       <c r="CD19" s="1">
         <v>13.404073</v>
       </c>
       <c r="CE19" s="1">
-        <v>4259.980000</v>
+        <v>4259.9799999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5996.060000</v>
+        <v>-5996.06</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>48081.513912</v>
+        <v>48081.513912000002</v>
       </c>
       <c r="B20" s="1">
         <v>13.355976</v>
       </c>
       <c r="C20" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.414000</v>
+        <v>-306.41399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>48091.678749</v>
+        <v>48091.678748999999</v>
       </c>
       <c r="G20" s="1">
-        <v>13.358800</v>
+        <v>13.3588</v>
       </c>
       <c r="H20" s="1">
-        <v>1271.020000</v>
+        <v>1271.02</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.465000</v>
+        <v>-264.46499999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>48102.130943</v>
+        <v>48102.130942999996</v>
       </c>
       <c r="L20" s="1">
         <v>13.361703</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.550000</v>
+        <v>1305.55</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.023000</v>
+        <v>-202.023</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>48112.711213</v>
+        <v>48112.711213000002</v>
       </c>
       <c r="Q20" s="1">
         <v>13.364642</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.240000</v>
+        <v>1317.24</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.775000</v>
+        <v>-183.77500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>48122.861205</v>
+        <v>48122.861205000001</v>
       </c>
       <c r="V20" s="1">
         <v>13.367461</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.080000</v>
+        <v>1330.08</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.277000</v>
+        <v>-170.27699999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>48133.393751</v>
+        <v>48133.393751000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.370387</v>
+        <v>13.370386999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.290000</v>
+        <v>1347.29</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.360000</v>
+        <v>-168.36</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>48143.935719</v>
+        <v>48143.935719000001</v>
       </c>
       <c r="AF20" s="1">
         <v>13.373315</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.890000</v>
+        <v>1359.89</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.099000</v>
+        <v>-178.09899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>48154.315994</v>
+        <v>48154.315993999997</v>
       </c>
       <c r="AK20" s="1">
         <v>13.376199</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.700000</v>
+        <v>1380.7</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.118000</v>
+        <v>-208.11799999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>48165.201227</v>
+        <v>48165.201226999998</v>
       </c>
       <c r="AP20" s="1">
         <v>13.379223</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.013000</v>
+        <v>-252.01300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>48176.234701</v>
+        <v>48176.234701000001</v>
       </c>
       <c r="AU20" s="1">
         <v>13.382287</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.810000</v>
+        <v>-311.81</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>48187.676414</v>
+        <v>48187.676414000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.385466</v>
+        <v>13.385465999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.808000</v>
+        <v>-363.80799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>48198.321056</v>
+        <v>48198.321056000001</v>
       </c>
       <c r="BE20" s="1">
         <v>13.388423</v>
       </c>
       <c r="BF20" s="1">
-        <v>1531.690000</v>
+        <v>1531.69</v>
       </c>
       <c r="BG20" s="1">
-        <v>-611.480000</v>
+        <v>-611.48</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>48210.113936</v>
+        <v>48210.113936000002</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.391698</v>
       </c>
       <c r="BK20" s="1">
-        <v>1686.110000</v>
+        <v>1686.11</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1054.840000</v>
+        <v>-1054.8399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>48221.053203</v>
+        <v>48221.053203000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.394737</v>
+        <v>13.394736999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.300000</v>
+        <v>1980.3</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1822.980000</v>
+        <v>-1822.98</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>48231.707795</v>
+        <v>48231.707795000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.397697</v>
+        <v>13.397697000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.990000</v>
+        <v>2369.9899999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2708.000000</v>
+        <v>-2708</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>48242.508151</v>
+        <v>48242.508151000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.400697</v>
+        <v>13.400696999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.760000</v>
+        <v>2849.76</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3676.240000</v>
+        <v>-3676.24</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>48255.513253</v>
+        <v>48255.513252999997</v>
       </c>
       <c r="CD20" s="1">
         <v>13.404309</v>
       </c>
       <c r="CE20" s="1">
-        <v>4272.870000</v>
+        <v>4272.87</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6001.830000</v>
+        <v>-6001.83</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>48081.884217</v>
+        <v>48081.884216999999</v>
       </c>
       <c r="B21" s="1">
-        <v>13.356079</v>
+        <v>13.356078999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1246.420000</v>
+        <v>1246.42</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.150000</v>
+        <v>-306.14999999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>48092.023468</v>
+        <v>48092.023467999999</v>
       </c>
       <c r="G21" s="1">
         <v>13.358895</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.210000</v>
+        <v>1270.21</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.960000</v>
+        <v>-264.95999999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>48102.476126</v>
+        <v>48102.476126000001</v>
       </c>
       <c r="L21" s="1">
         <v>13.361799</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.850000</v>
+        <v>1305.8499999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.861000</v>
+        <v>-201.86099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>48113.063269</v>
+        <v>48113.063268999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.364740</v>
+        <v>13.364739999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.280000</v>
+        <v>1317.28</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.782000</v>
+        <v>-183.78200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>48123.284292</v>
+        <v>48123.284291999997</v>
       </c>
       <c r="V21" s="1">
-        <v>13.367579</v>
+        <v>13.367578999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.080000</v>
+        <v>1330.08</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.443000</v>
+        <v>-170.44300000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>48133.818357</v>
+        <v>48133.818356999996</v>
       </c>
       <c r="AA21" s="1">
         <v>13.370505</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.220000</v>
+        <v>1347.22</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.378000</v>
+        <v>-168.37799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>48144.206535</v>
+        <v>48144.206534999998</v>
       </c>
       <c r="AF21" s="1">
         <v>13.373391</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.272000</v>
+        <v>-178.27199999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>48154.663721</v>
+        <v>48154.663720999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.376295</v>
+        <v>13.376295000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.147000</v>
+        <v>-208.14699999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>48165.560335</v>
+        <v>48165.560335000002</v>
       </c>
       <c r="AP21" s="1">
         <v>13.379322</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.944000</v>
+        <v>-251.94399999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>48176.601740</v>
+        <v>48176.601739999998</v>
       </c>
       <c r="AU21" s="1">
         <v>13.382389</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.855000</v>
+        <v>-311.85500000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>48188.394157</v>
+        <v>48188.394157000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.385665</v>
+        <v>13.385664999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.806000</v>
+        <v>-363.80599999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>48199.053561</v>
+        <v>48199.053561000001</v>
       </c>
       <c r="BE21" s="1">
         <v>13.388626</v>
       </c>
       <c r="BF21" s="1">
-        <v>1531.720000</v>
+        <v>1531.72</v>
       </c>
       <c r="BG21" s="1">
-        <v>-611.438000</v>
+        <v>-611.43799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>48210.487424</v>
+        <v>48210.487423999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.391802</v>
       </c>
       <c r="BK21" s="1">
-        <v>1686.080000</v>
+        <v>1686.08</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1054.900000</v>
+        <v>-1054.9000000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>48221.451643</v>
@@ -5559,180 +5975,180 @@
         <v>13.394848</v>
       </c>
       <c r="BP21" s="1">
-        <v>1980.320000</v>
+        <v>1980.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1823.010000</v>
+        <v>-1823.01</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>48232.140275</v>
+        <v>48232.140274999998</v>
       </c>
       <c r="BT21" s="1">
         <v>13.397817</v>
       </c>
       <c r="BU21" s="1">
-        <v>2369.680000</v>
+        <v>2369.6799999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2707.690000</v>
+        <v>-2707.69</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>48243.243718</v>
+        <v>48243.243717999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.400901</v>
+        <v>13.400900999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.080000</v>
+        <v>2850.08</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3675.850000</v>
+        <v>-3675.85</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>48255.739923</v>
+        <v>48255.739923000001</v>
       </c>
       <c r="CD21" s="1">
         <v>13.404372</v>
       </c>
       <c r="CE21" s="1">
-        <v>4274.430000</v>
+        <v>4274.43</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6001.860000</v>
+        <v>-6001.86</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>48082.232445</v>
+        <v>48082.232445000001</v>
       </c>
       <c r="B22" s="1">
         <v>13.356176</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.498000</v>
+        <v>-306.49799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>48092.368155</v>
+        <v>48092.368154999996</v>
       </c>
       <c r="G22" s="1">
         <v>13.358991</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.970000</v>
+        <v>1270.97</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.536000</v>
+        <v>-263.536</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>48102.824819</v>
+        <v>48102.824819000001</v>
       </c>
       <c r="L22" s="1">
         <v>13.361896</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.790000</v>
+        <v>1305.79</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.903000</v>
+        <v>-201.90299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>48113.487350</v>
+        <v>48113.487350000003</v>
       </c>
       <c r="Q22" s="1">
         <v>13.364858</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.270000</v>
+        <v>1317.27</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.703000</v>
+        <v>-183.703</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>48123.556098</v>
+        <v>48123.556098000001</v>
       </c>
       <c r="V22" s="1">
         <v>13.367654</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.582000</v>
+        <v>-170.58199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>48134.099557</v>
+        <v>48134.099557000001</v>
       </c>
       <c r="AA22" s="1">
         <v>13.370583</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.260000</v>
+        <v>1347.26</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.454000</v>
+        <v>-168.45400000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>48144.554727</v>
+        <v>48144.554727000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.373487</v>
+        <v>13.373487000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.065000</v>
+        <v>-178.065</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>48155.012412</v>
+        <v>48155.012411999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.376392</v>
+        <v>13.376391999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.680000</v>
+        <v>1380.68</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.142000</v>
+        <v>-208.142</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>48165.919899</v>
@@ -5741,225 +6157,225 @@
         <v>13.379422</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.340000</v>
+        <v>1402.34</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.922000</v>
+        <v>-251.922</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>48177.332844</v>
+        <v>48177.332843999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.382592</v>
+        <v>13.382592000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.940000</v>
+        <v>1426.94</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.843000</v>
+        <v>-311.84300000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>48188.753724</v>
+        <v>48188.753724000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.385765</v>
+        <v>13.385764999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.791000</v>
+        <v>-363.791</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>48199.440062</v>
+        <v>48199.440062000001</v>
       </c>
       <c r="BE22" s="1">
         <v>13.388733</v>
       </c>
       <c r="BF22" s="1">
-        <v>1531.670000</v>
+        <v>1531.67</v>
       </c>
       <c r="BG22" s="1">
-        <v>-611.400000</v>
+        <v>-611.4</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>48210.863919</v>
+        <v>48210.863919000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.391907</v>
       </c>
       <c r="BK22" s="1">
-        <v>1686.140000</v>
+        <v>1686.14</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1054.950000</v>
+        <v>-1054.95</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>48222.186560</v>
+        <v>48222.186560000002</v>
       </c>
       <c r="BO22" s="1">
         <v>13.395052</v>
       </c>
       <c r="BP22" s="1">
-        <v>1980.220000</v>
+        <v>1980.22</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1822.970000</v>
+        <v>-1822.97</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>48232.867160</v>
+        <v>48232.867160000002</v>
       </c>
       <c r="BT22" s="1">
         <v>13.398019</v>
       </c>
       <c r="BU22" s="1">
-        <v>2369.510000</v>
+        <v>2369.5100000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2707.580000</v>
+        <v>-2707.58</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>48243.369205</v>
+        <v>48243.369205000003</v>
       </c>
       <c r="BY22" s="1">
         <v>13.400936</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2849.520000</v>
+        <v>2849.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3675.360000</v>
+        <v>-3675.36</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>48256.258771</v>
+        <v>48256.258771000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.404516</v>
+        <v>13.404515999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4257.910000</v>
+        <v>4257.91</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5994.790000</v>
+        <v>-5994.79</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>48082.569690</v>
+        <v>48082.569689999997</v>
       </c>
       <c r="B23" s="1">
-        <v>13.356269</v>
+        <v>13.356268999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.232000</v>
+        <v>-306.23200000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>48092.781354</v>
+        <v>48092.781353999999</v>
       </c>
       <c r="G23" s="1">
-        <v>13.359106</v>
+        <v>13.359106000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1271.610000</v>
+        <v>1271.6099999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.010000</v>
+        <v>-264.01</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>48103.258317</v>
       </c>
       <c r="L23" s="1">
-        <v>13.362016</v>
+        <v>13.362016000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.610000</v>
+        <v>1305.6099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.936000</v>
+        <v>-201.93600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>48113.768047</v>
+        <v>48113.768046999998</v>
       </c>
       <c r="Q23" s="1">
         <v>13.364936</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.320000</v>
+        <v>1317.32</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.881000</v>
+        <v>-183.881</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>48123.899858</v>
+        <v>48123.899857999997</v>
       </c>
       <c r="V23" s="1">
-        <v>13.367750</v>
+        <v>13.367749999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.240000</v>
+        <v>1330.24</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.306000</v>
+        <v>-170.30600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>48134.445764</v>
+        <v>48134.445763999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.370679</v>
+        <v>13.370679000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.427000</v>
+        <v>-168.42699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>48144.898491</v>
@@ -5968,240 +6384,240 @@
         <v>13.373583</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.960000</v>
+        <v>1359.96</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.966000</v>
+        <v>-177.96600000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>48155.709256</v>
+        <v>48155.709256000002</v>
       </c>
       <c r="AK23" s="1">
         <v>13.376586</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.710000</v>
+        <v>1380.71</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.113000</v>
+        <v>-208.113</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>48166.640587</v>
+        <v>48166.640587000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.379622</v>
+        <v>13.379621999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.340000</v>
+        <v>1402.34</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.945000</v>
+        <v>-251.94499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>48177.721988</v>
+        <v>48177.721987999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.382701</v>
+        <v>13.382701000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.910000</v>
+        <v>1426.91</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.834000</v>
+        <v>-311.834</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>48189.112363</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.385865</v>
+        <v>13.385865000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.816000</v>
+        <v>-363.81599999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>48199.802111</v>
+        <v>48199.802110999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.388834</v>
+        <v>13.388833999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-611.437000</v>
+        <v>-611.43700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>48211.546383</v>
+        <v>48211.546383000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.392096</v>
       </c>
       <c r="BK23" s="1">
-        <v>1686.060000</v>
+        <v>1686.06</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1054.910000</v>
+        <v>-1054.9100000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>48222.293200</v>
+        <v>48222.2932</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.395081</v>
+        <v>13.395080999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.180000</v>
+        <v>1980.18</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1822.860000</v>
+        <v>-1822.86</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>48233.009265</v>
+        <v>48233.009265000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.398058</v>
+        <v>13.398058000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.270000</v>
+        <v>2369.27</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2707.040000</v>
+        <v>-2707.04</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>48243.795765</v>
+        <v>48243.795765000003</v>
       </c>
       <c r="BY23" s="1">
         <v>13.401054</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2850.100000</v>
+        <v>2850.1</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3675.490000</v>
+        <v>-3675.49</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>48256.778548</v>
+        <v>48256.778548000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.404661</v>
+        <v>13.404661000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4264.770000</v>
+        <v>4264.7700000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5990.830000</v>
+        <v>-5990.83</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>48082.981400</v>
+        <v>48082.981399999997</v>
       </c>
       <c r="B24" s="1">
         <v>13.356384</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.370000</v>
+        <v>1246.3699999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.173000</v>
+        <v>-306.173</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>48093.062068</v>
+        <v>48093.062067999999</v>
       </c>
       <c r="G24" s="1">
-        <v>13.359184</v>
+        <v>13.359184000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.950000</v>
+        <v>1270.95</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.021000</v>
+        <v>-264.02100000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>48103.535086</v>
+        <v>48103.535086000004</v>
       </c>
       <c r="L24" s="1">
         <v>13.362093</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.550000</v>
+        <v>1305.55</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.863000</v>
+        <v>-201.863</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>48114.115775</v>
+        <v>48114.115774999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.365032</v>
+        <v>13.365031999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.230000</v>
+        <v>1317.23</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.758000</v>
+        <v>-183.75800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>48124.243554</v>
+        <v>48124.243554000001</v>
       </c>
       <c r="V24" s="1">
-        <v>13.367845</v>
+        <v>13.367845000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.350000</v>
+        <v>1330.35</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.317000</v>
+        <v>-170.31700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>48134.795972</v>
@@ -6210,694 +6626,695 @@
         <v>13.370777</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.220000</v>
+        <v>1347.22</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.417000</v>
+        <v>-168.417</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>48145.583429</v>
+        <v>48145.583428999998</v>
       </c>
       <c r="AF24" s="1">
         <v>13.373773</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.150000</v>
+        <v>1360.15</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.178000</v>
+        <v>-178.178</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>48156.055463</v>
+        <v>48156.055462999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.376682</v>
+        <v>13.376682000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.690000</v>
+        <v>1380.69</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.164000</v>
+        <v>-208.16399999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>48167.002169</v>
+        <v>48167.002168999999</v>
       </c>
       <c r="AP24" s="1">
         <v>13.379723</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.380000</v>
+        <v>1402.38</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.006000</v>
+        <v>-252.006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>48178.084778</v>
+        <v>48178.084777999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.382801</v>
+        <v>13.382801000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.826000</v>
+        <v>-311.82600000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>48189.777964</v>
+        <v>48189.777964000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>13.386049</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.777000</v>
+        <v>-363.77699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>48200.470718</v>
+        <v>48200.470717999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.389020</v>
+        <v>13.38902</v>
       </c>
       <c r="BF24" s="1">
-        <v>1531.700000</v>
+        <v>1531.7</v>
       </c>
       <c r="BG24" s="1">
-        <v>-611.375000</v>
+        <v>-611.375</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>48211.987327</v>
+        <v>48211.987327000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.392219</v>
+        <v>13.392219000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1054.820000</v>
+        <v>-1054.82</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>48222.690495</v>
+        <v>48222.690495000003</v>
       </c>
       <c r="BO24" s="1">
         <v>13.395192</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.170000</v>
+        <v>1980.17</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1822.900000</v>
+        <v>-1822.9</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>48233.423460</v>
+        <v>48233.423459999998</v>
       </c>
       <c r="BT24" s="1">
         <v>13.398173</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.080000</v>
+        <v>2369.08</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2707.050000</v>
+        <v>-2707.05</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>48244.209427</v>
+        <v>48244.209427000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.401169</v>
+        <v>13.401168999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2849.370000</v>
+        <v>2849.37</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3675.680000</v>
+        <v>-3675.68</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>48257.331127</v>
+        <v>48257.331126999998</v>
       </c>
       <c r="CD24" s="1">
         <v>13.404814</v>
       </c>
       <c r="CE24" s="1">
-        <v>4274.000000</v>
+        <v>4274</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5999.900000</v>
+        <v>-5999.9</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>48083.273047</v>
+        <v>48083.273047000002</v>
       </c>
       <c r="B25" s="1">
         <v>13.356465</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.020000</v>
+        <v>1246.02</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.737000</v>
+        <v>-306.73700000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>48093.403803</v>
+        <v>48093.403803000001</v>
       </c>
       <c r="G25" s="1">
-        <v>13.359279</v>
+        <v>13.359279000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1271.090000</v>
+        <v>1271.0899999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.047000</v>
+        <v>-264.04700000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>48103.879341</v>
       </c>
       <c r="L25" s="1">
-        <v>13.362189</v>
+        <v>13.362189000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.450000</v>
+        <v>1305.45</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.857000</v>
+        <v>-201.857</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>48114.466446</v>
+        <v>48114.466445999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.365130</v>
+        <v>13.365130000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.270000</v>
+        <v>1317.27</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.837000</v>
+        <v>-183.83699999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>48124.934482</v>
+        <v>48124.934481999997</v>
       </c>
       <c r="V25" s="1">
-        <v>13.368037</v>
+        <v>13.368036999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.150000</v>
+        <v>1330.15</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.290000</v>
+        <v>-170.29</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>48135.490383</v>
+        <v>48135.490382999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.370970</v>
+        <v>13.37097</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.160000</v>
+        <v>1347.16</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.419000</v>
+        <v>-168.41900000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>48145.926661</v>
+        <v>48145.926660999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>13.373869</v>
+        <v>13.373868999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.040000</v>
+        <v>1360.04</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.147000</v>
+        <v>-178.14699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>48156.406137</v>
+        <v>48156.406136999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.376779</v>
+        <v>13.376779000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.670000</v>
+        <v>1380.67</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.148000</v>
+        <v>-208.148</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>48167.361768</v>
+        <v>48167.361768000002</v>
       </c>
       <c r="AP25" s="1">
         <v>13.379823</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.330000</v>
+        <v>1402.33</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.920000</v>
+        <v>-251.92</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>48178.786617</v>
+        <v>48178.786616999998</v>
       </c>
       <c r="AU25" s="1">
         <v>13.382996</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.940000</v>
+        <v>1426.94</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.859000</v>
+        <v>-311.85899999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>48190.188686</v>
+        <v>48190.188686000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.386164</v>
+        <v>13.386164000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.807000</v>
+        <v>-363.80700000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>48200.918143</v>
+        <v>48200.918143000003</v>
       </c>
       <c r="BE25" s="1">
         <v>13.389144</v>
       </c>
       <c r="BF25" s="1">
-        <v>1531.680000</v>
+        <v>1531.68</v>
       </c>
       <c r="BG25" s="1">
-        <v>-611.375000</v>
+        <v>-611.375</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>48212.362798</v>
+        <v>48212.362798000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.392323</v>
+        <v>13.392322999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1686.060000</v>
+        <v>1686.06</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1054.950000</v>
+        <v>-1054.95</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>48223.112096</v>
+        <v>48223.112095999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.395309</v>
+        <v>13.395308999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.190000</v>
+        <v>1980.19</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1822.840000</v>
+        <v>-1822.84</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>48233.849985</v>
+        <v>48233.849985000001</v>
       </c>
       <c r="BT25" s="1">
         <v>13.398292</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.840000</v>
+        <v>2368.84</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2706.770000</v>
+        <v>-2706.77</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>48244.663266</v>
+        <v>48244.663266000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.401295</v>
+        <v>13.401294999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.510000</v>
+        <v>2849.51</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3676.300000</v>
+        <v>-3676.3</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>48257.860817</v>
+        <v>48257.860817000001</v>
       </c>
       <c r="CD25" s="1">
         <v>13.404961</v>
       </c>
       <c r="CE25" s="1">
-        <v>4256.600000</v>
+        <v>4256.6000000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5993.180000</v>
+        <v>-5993.18</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>48083.615293</v>
+        <v>48083.615293000003</v>
       </c>
       <c r="B26" s="1">
-        <v>13.356560</v>
+        <v>13.35656</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.370000</v>
+        <v>1246.3699999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.507000</v>
+        <v>-306.50700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>48093.748025</v>
+        <v>48093.748025000001</v>
       </c>
       <c r="G26" s="1">
-        <v>13.359374</v>
+        <v>13.359374000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1270.810000</v>
+        <v>1270.81</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.669000</v>
+        <v>-263.66899999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>48104.569274</v>
+        <v>48104.569274000001</v>
       </c>
       <c r="L26" s="1">
-        <v>13.362380</v>
+        <v>13.36238</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.880000</v>
+        <v>1305.8800000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.000000</v>
+        <v>-202</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>48115.162797</v>
+        <v>48115.162796999997</v>
       </c>
       <c r="Q26" s="1">
         <v>13.365323</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.799000</v>
+        <v>-183.79900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>48125.273744</v>
+        <v>48125.273743999998</v>
       </c>
       <c r="V26" s="1">
-        <v>13.368132</v>
+        <v>13.368131999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.250000</v>
+        <v>1330.25</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.318000</v>
+        <v>-170.31800000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>48135.846466</v>
+        <v>48135.846466000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>13.371068</v>
+        <v>13.371067999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.370000</v>
+        <v>1347.37</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.501000</v>
+        <v>-168.501</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>48146.269925</v>
+        <v>48146.269925000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.373964</v>
+        <v>13.373964000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.080000</v>
+        <v>1360.08</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.160000</v>
+        <v>-178.16</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>48157.061847</v>
+        <v>48157.061846999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.376962</v>
+        <v>13.376962000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.137000</v>
+        <v>-208.137</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>48168.043802</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.380012</v>
+        <v>13.380012000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.360000</v>
+        <v>1402.36</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.956000</v>
+        <v>-251.95599999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>48179.208217</v>
+        <v>48179.208216999999</v>
       </c>
       <c r="AU26" s="1">
         <v>13.383113</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.940000</v>
+        <v>1426.94</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.807000</v>
+        <v>-311.80700000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>48190.575563</v>
+        <v>48190.575562999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.386271</v>
+        <v>13.386271000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.795000</v>
+        <v>-363.79500000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>48201.278236</v>
+        <v>48201.278235999998</v>
       </c>
       <c r="BE26" s="1">
         <v>13.389244</v>
       </c>
       <c r="BF26" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG26" s="1">
-        <v>-611.396000</v>
+        <v>-611.39599999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>48212.737312</v>
+        <v>48212.737311999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.392427</v>
       </c>
       <c r="BK26" s="1">
-        <v>1686.060000</v>
+        <v>1686.06</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1054.820000</v>
+        <v>-1054.82</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>48223.539646</v>
+        <v>48223.539645999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.395428</v>
+        <v>13.395428000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.150000</v>
+        <v>1980.15</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1822.820000</v>
+        <v>-1822.82</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>48234.273570</v>
+        <v>48234.273569999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.398409</v>
+        <v>13.398408999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2368.530000</v>
+        <v>2368.5300000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2706.630000</v>
+        <v>-2706.63</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>48245.112674</v>
+        <v>48245.112674000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.401420</v>
+        <v>13.40142</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2850.000000</v>
+        <v>2850</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3675.440000</v>
+        <v>-3675.44</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>48258.378177</v>
+        <v>48258.378176999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>13.405105</v>
+        <v>13.405105000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4254.470000</v>
+        <v>4254.47</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6011.320000</v>
+        <v>-6011.32</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>